--- a/LubanFiles/MyTest/datas/__tables__.xlsx
+++ b/LubanFiles/MyTest/datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SelfCode\LubanFiles\MyTest\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9778E4E-5422-42FE-9F5A-34AF860AA1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3538B38-8048-4D2A-8B4D-83748EC8981D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="8145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Configs/EquipInfo.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.TestInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/TestInfo.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +497,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,8 +633,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
